--- a/Automacoes/dados.xlsx
+++ b/Automacoes/dados.xlsx
@@ -397,48 +397,864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>nome</v>
+        <v>Nome</v>
       </c>
       <c r="B1" t="str">
-        <v>numero</v>
+        <v>Telefone</v>
       </c>
       <c r="C1" t="str">
-        <v>vencimento</v>
-      </c>
-      <c r="D1" t="str">
-        <v>chave_pix</v>
-      </c>
-      <c r="E1" t="str">
-        <v>favorecido</v>
+        <v>Enviar</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Alan SPFC</v>
+      </c>
+      <c r="B2" t="str">
+        <v>3171701376</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Albertino Lima</v>
+      </c>
+      <c r="B3" t="str">
+        <v>8396010566</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>André Valerio</v>
+      </c>
+      <c r="B4" t="str">
+        <v>4397139047</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Ana Karenina</v>
+      </c>
+      <c r="B5" t="str">
+        <v>21970009864</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Anna Santos</v>
+      </c>
+      <c r="B6" t="str">
+        <v>7599684844</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Burgues Daniel JC</v>
+      </c>
+      <c r="B7" t="str">
+        <v>19987553303</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Ca.Negreiros</v>
+      </c>
+      <c r="B8" t="str">
+        <v>6298662520</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Caio</v>
+      </c>
+      <c r="B9" t="str">
+        <v>19981653480</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Carlos Eduardo</v>
+      </c>
+      <c r="B10" t="str">
+        <v>6993880815</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Castle</v>
+      </c>
+      <c r="B11" t="str">
+        <v>27981551901</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Cristiano Reis</v>
+      </c>
+      <c r="B12" t="str">
+        <v>11979911400</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Cynthia Valeska</v>
+      </c>
+      <c r="B13" t="str">
+        <v>8388317714</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Danilo Siqueira</v>
+      </c>
+      <c r="B14" t="str">
+        <v>3391357868</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Dato</v>
+      </c>
+      <c r="B15" t="str">
+        <v>4185038817</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Dário</v>
+      </c>
+      <c r="B16" t="str">
+        <v>8695459463</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Diego Costa</v>
+      </c>
+      <c r="B17" t="str">
+        <v>8299454621</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Douglas</v>
+      </c>
+      <c r="B18" t="str">
+        <v>21987012003</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Edgar R.</v>
+      </c>
+      <c r="B19" t="str">
+        <v>18997542325</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Eduardo</v>
+      </c>
+      <c r="B20" t="str">
+        <v>6993880815</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
         <v>Ezequiel</v>
       </c>
-      <c r="B2" t="str">
-        <v>67982139429</v>
-      </c>
-      <c r="C2" t="str">
-        <v>11/2021</v>
-      </c>
-      <c r="D2" t="str">
-        <v xml:space="preserve">grupe </v>
-      </c>
-      <c r="E2" t="str">
-        <v>lindes</v>
+      <c r="B21" t="str">
+        <v>6782139429</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Fabiana Novaes</v>
+      </c>
+      <c r="B22" t="str">
+        <v>4898634058</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Fabio Passos</v>
+      </c>
+      <c r="B23" t="str">
+        <v>6181732857</v>
+      </c>
+      <c r="C23" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Fabio Santos</v>
+      </c>
+      <c r="B24" t="str">
+        <v>19995901620</v>
+      </c>
+      <c r="C24" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Felipe de Souza</v>
+      </c>
+      <c r="B25" t="str">
+        <v>11949471051</v>
+      </c>
+      <c r="C25" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Fernando Vilaça</v>
+      </c>
+      <c r="B26" t="str">
+        <v>6292612285</v>
+      </c>
+      <c r="C26" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Filippy</v>
+      </c>
+      <c r="B27" t="str">
+        <v>8899685682</v>
+      </c>
+      <c r="C27" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Flavio Gabriel</v>
+      </c>
+      <c r="B28" t="str">
+        <v>8299971329</v>
+      </c>
+      <c r="C28" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Gabi Meredith</v>
+      </c>
+      <c r="B29" t="str">
+        <v>6184175115</v>
+      </c>
+      <c r="C29" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Gabriel Zoro</v>
+      </c>
+      <c r="B30" t="str">
+        <v>12987051579</v>
+      </c>
+      <c r="C30" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Gabriel Wandel</v>
+      </c>
+      <c r="B31" t="str">
+        <v>6592213626</v>
+      </c>
+      <c r="C31" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Gabriela A.</v>
+      </c>
+      <c r="B32" t="str">
+        <v>11958889711</v>
+      </c>
+      <c r="C32" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Gi Gerlaine</v>
+      </c>
+      <c r="B33" t="str">
+        <v>3198140516</v>
+      </c>
+      <c r="C33" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Gustavo Diguiriguis</v>
+      </c>
+      <c r="B34" t="str">
+        <v>6186323901</v>
+      </c>
+      <c r="C34" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Hugo</v>
+      </c>
+      <c r="B35" t="str">
+        <v>21973176016</v>
+      </c>
+      <c r="C35" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Humberto</v>
+      </c>
+      <c r="B36" t="str">
+        <v>3184045685</v>
+      </c>
+      <c r="C36" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Ian Carreon</v>
+      </c>
+      <c r="B37" t="str">
+        <v>11964645348</v>
+      </c>
+      <c r="C37" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Ihian Paixão</v>
+      </c>
+      <c r="B38" t="str">
+        <v>9189861641</v>
+      </c>
+      <c r="C38" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Jair F.</v>
+      </c>
+      <c r="B39" t="str">
+        <v>8387759329</v>
+      </c>
+      <c r="C39" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Jean</v>
+      </c>
+      <c r="B40" t="str">
+        <v>11984286554</v>
+      </c>
+      <c r="C40" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Jessica Brito</v>
+      </c>
+      <c r="B41" t="str">
+        <v>11948425608</v>
+      </c>
+      <c r="C41" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Jesus Navarro</v>
+      </c>
+      <c r="B42" t="str">
+        <v>4491555975</v>
+      </c>
+      <c r="C42" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>João</v>
+      </c>
+      <c r="B43" t="str">
+        <v>4396884499</v>
+      </c>
+      <c r="C43" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>José Fabio Passos</v>
+      </c>
+      <c r="B44" t="str">
+        <v>6181732857</v>
+      </c>
+      <c r="C44" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Junior Maker</v>
+      </c>
+      <c r="B45" t="str">
+        <v>3192729315</v>
+      </c>
+      <c r="C45" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Kalleb Clesio</v>
+      </c>
+      <c r="B46" t="str">
+        <v>6191647350</v>
+      </c>
+      <c r="C46" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Larissa</v>
+      </c>
+      <c r="B47" t="str">
+        <v>7191039903</v>
+      </c>
+      <c r="C47" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Leonardo</v>
+      </c>
+      <c r="B48" t="str">
+        <v>4187855408</v>
+      </c>
+      <c r="C48" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Lucas Fernando</v>
+      </c>
+      <c r="B49" t="str">
+        <v>3191407961</v>
+      </c>
+      <c r="C49" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Lucas Lima</v>
+      </c>
+      <c r="B50" t="str">
+        <v>3291935924</v>
+      </c>
+      <c r="C50" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Luiz Felipe</v>
+      </c>
+      <c r="B51" t="str">
+        <v>3185094073</v>
+      </c>
+      <c r="C51" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Marcelo</v>
+      </c>
+      <c r="B52" t="str">
+        <v>16981496811</v>
+      </c>
+      <c r="C52" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Marlon Mauro</v>
+      </c>
+      <c r="B53" t="str">
+        <v>19982614061</v>
+      </c>
+      <c r="C53" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Marlon Moreira</v>
+      </c>
+      <c r="B54" t="str">
+        <v>19991831850</v>
+      </c>
+      <c r="C54" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Marya Edurda</v>
+      </c>
+      <c r="B55" t="str">
+        <v>19988180035</v>
+      </c>
+      <c r="C55" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Matheus Portela</v>
+      </c>
+      <c r="B56" t="str">
+        <v>7191845599</v>
+      </c>
+      <c r="C56" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Michel</v>
+      </c>
+      <c r="B57" t="str">
+        <v>17988005819</v>
+      </c>
+      <c r="C57" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Muuh</v>
+      </c>
+      <c r="B58" t="str">
+        <v>11977972368</v>
+      </c>
+      <c r="C58" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Natalia M</v>
+      </c>
+      <c r="B59" t="str">
+        <v>8294062211</v>
+      </c>
+      <c r="C59" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Nataly</v>
+      </c>
+      <c r="B60" t="str">
+        <v>5496472334</v>
+      </c>
+      <c r="C60" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Paah</v>
+      </c>
+      <c r="B61" t="str">
+        <v>19986091132</v>
+      </c>
+      <c r="C61" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Patric Oliveira</v>
+      </c>
+      <c r="B62" t="str">
+        <v>7381892197</v>
+      </c>
+      <c r="C62" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Pedro</v>
+      </c>
+      <c r="B63" t="str">
+        <v>6181607919</v>
+      </c>
+      <c r="C63" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Polliana Pavloski</v>
+      </c>
+      <c r="B64" t="str">
+        <v>14998946276</v>
+      </c>
+      <c r="C64" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Rapha Terra 2</v>
+      </c>
+      <c r="B65" t="str">
+        <v>21972873896</v>
+      </c>
+      <c r="C65" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Rafaela</v>
+      </c>
+      <c r="B66" t="str">
+        <v>11953455386</v>
+      </c>
+      <c r="C66" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Ramon Souza</v>
+      </c>
+      <c r="B67" t="str">
+        <v>11940289133</v>
+      </c>
+      <c r="C67" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Rebeca Machado</v>
+      </c>
+      <c r="B68" t="str">
+        <v>7194043159</v>
+      </c>
+      <c r="C68" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Samara Barros</v>
+      </c>
+      <c r="B69" t="str">
+        <v>11977246135</v>
+      </c>
+      <c r="C69" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Sofia</v>
+      </c>
+      <c r="B70" t="str">
+        <v>6196253129</v>
+      </c>
+      <c r="C70" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Thayna Ribeiro</v>
+      </c>
+      <c r="B71" t="str">
+        <v>11985777035</v>
+      </c>
+      <c r="C71" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Tainara (Thay)</v>
+      </c>
+      <c r="B72" t="str">
+        <v>11968550034</v>
+      </c>
+      <c r="C72" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Thiago Santos</v>
+      </c>
+      <c r="B73" t="str">
+        <v>12991153731</v>
+      </c>
+      <c r="C73" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Tiago Carimori</v>
+      </c>
+      <c r="B74" t="str">
+        <v>19992874030</v>
+      </c>
+      <c r="C74" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Tiago Philippe</v>
+      </c>
+      <c r="B75" t="str">
+        <v>3187270825</v>
+      </c>
+      <c r="C75" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Tiago Tavares</v>
+      </c>
+      <c r="B76" t="str">
+        <v>8386237105</v>
+      </c>
+      <c r="C76" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Tina Martins</v>
+      </c>
+      <c r="B77" t="str">
+        <v>3194453692</v>
+      </c>
+      <c r="C77" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Vander Luz</v>
+      </c>
+      <c r="B78" t="str">
+        <v>21990206536</v>
+      </c>
+      <c r="C78" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Vinicius</v>
+      </c>
+      <c r="B79" t="str">
+        <v>8396540760</v>
+      </c>
+      <c r="C79" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Vinicius Vini</v>
+      </c>
+      <c r="B80" t="str">
+        <v>11948432995</v>
+      </c>
+      <c r="C80" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Vinicius Cardoso</v>
+      </c>
+      <c r="B81" t="str">
+        <v>11959648368</v>
+      </c>
+      <c r="C81" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Vivian Queiroz</v>
+      </c>
+      <c r="B82" t="str">
+        <v>9281529451</v>
+      </c>
+      <c r="C82" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Viviane C Oliveira</v>
+      </c>
+      <c r="B83" t="str">
+        <v>11959028069</v>
+      </c>
+      <c r="C83" t="str">
+        <v>x</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C83"/>
   </ignoredErrors>
 </worksheet>
 </file>